--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/App-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/App-Cav1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H2">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I2">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J2">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N2">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O2">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P2">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q2">
-        <v>90166.71881225976</v>
+        <v>107894.2579054997</v>
       </c>
       <c r="R2">
-        <v>360666.875249039</v>
+        <v>431577.0316219989</v>
       </c>
       <c r="S2">
-        <v>0.09471769375923095</v>
+        <v>0.1381498418476316</v>
       </c>
       <c r="T2">
-        <v>0.05694128411231981</v>
+        <v>0.09377787253400048</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H3">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I3">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J3">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N3">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O3">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P3">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q3">
-        <v>17986.5601807106</v>
+        <v>18835.44829005867</v>
       </c>
       <c r="R3">
-        <v>107919.3610842636</v>
+        <v>113012.6897403521</v>
       </c>
       <c r="S3">
-        <v>0.01889439386749519</v>
+        <v>0.02411726307696501</v>
       </c>
       <c r="T3">
-        <v>0.01703806870668658</v>
+        <v>0.02455665810889984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H4">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I4">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J4">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N4">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O4">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P4">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q4">
-        <v>222.7022955784514</v>
+        <v>42.651076028975</v>
       </c>
       <c r="R4">
-        <v>1336.213773470708</v>
+        <v>255.90645617385</v>
       </c>
       <c r="S4">
-        <v>0.0002339427242106697</v>
+        <v>5.461124180672327E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002109584587091721</v>
+        <v>5.560620994473658E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H5">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I5">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J5">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N5">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O5">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P5">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q5">
-        <v>13130.31609118844</v>
+        <v>14346.37828367599</v>
       </c>
       <c r="R5">
-        <v>52521.26436475375</v>
+        <v>57385.51313470394</v>
       </c>
       <c r="S5">
-        <v>0.01379304110063711</v>
+        <v>0.01836937321272505</v>
       </c>
       <c r="T5">
-        <v>0.008291940406411553</v>
+        <v>0.01246936454384327</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H6">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I6">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J6">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N6">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O6">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P6">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q6">
-        <v>58654.76030305053</v>
+        <v>224.95328441115</v>
       </c>
       <c r="R6">
-        <v>351928.5618183032</v>
+        <v>1349.7197064669</v>
       </c>
       <c r="S6">
-        <v>0.06161523561119148</v>
+        <v>0.0002880344261853583</v>
       </c>
       <c r="T6">
-        <v>0.05556169862258373</v>
+        <v>0.00029328215663836</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H7">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I7">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J7">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N7">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O7">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P7">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q7">
-        <v>124.3470749242535</v>
+        <v>188.596549212</v>
       </c>
       <c r="R7">
-        <v>746.0824495455211</v>
+        <v>1131.579295272</v>
       </c>
       <c r="S7">
-        <v>0.0001306232312507104</v>
+        <v>0.0002414825770382243</v>
       </c>
       <c r="T7">
-        <v>0.0001177898377871624</v>
+        <v>0.0002458821743022587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>216.91135</v>
       </c>
       <c r="I8">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J8">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N8">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O8">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P8">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q8">
-        <v>63983.16643794621</v>
+        <v>73112.21634531411</v>
       </c>
       <c r="R8">
-        <v>383898.9986276773</v>
+        <v>438673.2980718847</v>
       </c>
       <c r="S8">
-        <v>0.06721258180675066</v>
+        <v>0.09361426012199413</v>
       </c>
       <c r="T8">
-        <v>0.06060912008123732</v>
+        <v>0.09531982848124736</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>216.91135</v>
       </c>
       <c r="I9">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J9">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N9">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O9">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P9">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q9">
         <v>12763.43521033246</v>
       </c>
       <c r="R9">
-        <v>114870.9168929921</v>
+        <v>114870.9168929922</v>
       </c>
       <c r="S9">
-        <v>0.0134076426811672</v>
+        <v>0.01634254305993093</v>
       </c>
       <c r="T9">
-        <v>0.01813556487695212</v>
+        <v>0.0249604344368582</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>216.91135</v>
       </c>
       <c r="I10">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J10">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N10">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O10">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P10">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q10">
-        <v>158.0316798904222</v>
+        <v>28.90158159039444</v>
       </c>
       <c r="R10">
-        <v>1422.2851190138</v>
+        <v>260.11423431355</v>
       </c>
       <c r="S10">
-        <v>0.0001660079956029476</v>
+        <v>3.700612992172859E-05</v>
       </c>
       <c r="T10">
-        <v>0.0002245472113139538</v>
+        <v>5.652052292509405E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>216.91135</v>
       </c>
       <c r="I11">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J11">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N11">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O11">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P11">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q11">
-        <v>9317.397936977208</v>
+        <v>9721.513759949306</v>
       </c>
       <c r="R11">
-        <v>55904.38762186325</v>
+        <v>58329.08255969585</v>
       </c>
       <c r="S11">
-        <v>0.009787673945028847</v>
+        <v>0.01244760948847597</v>
       </c>
       <c r="T11">
-        <v>0.008826060381907091</v>
+        <v>0.01267439383590571</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>216.91135</v>
       </c>
       <c r="I12">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J12">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N12">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O12">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P12">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q12">
-        <v>41621.97915465953</v>
+        <v>152.4347404276333</v>
       </c>
       <c r="R12">
-        <v>374597.8123919358</v>
+        <v>1371.9126638487</v>
       </c>
       <c r="S12">
-        <v>0.04372276076090399</v>
+        <v>0.0001951803153473368</v>
       </c>
       <c r="T12">
-        <v>0.05914066948492111</v>
+        <v>0.000298104490025012</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>216.91135</v>
       </c>
       <c r="I13">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J13">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N13">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O13">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P13">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q13">
-        <v>88.23787419298333</v>
+        <v>127.7983831173333</v>
       </c>
       <c r="R13">
-        <v>794.1408677368501</v>
+        <v>1150.185448056</v>
       </c>
       <c r="S13">
-        <v>9.269149477623186E-05</v>
+        <v>0.0001636354590019631</v>
       </c>
       <c r="T13">
-        <v>0.0001253771939654407</v>
+        <v>0.0002499251267679365</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H14">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I14">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J14">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N14">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O14">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P14">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q14">
-        <v>134573.3508616593</v>
+        <v>142138.0032949483</v>
       </c>
       <c r="R14">
-        <v>807440.1051699555</v>
+        <v>852828.01976969</v>
       </c>
       <c r="S14">
-        <v>0.1413656568961792</v>
+        <v>0.1819961790082837</v>
       </c>
       <c r="T14">
-        <v>0.1274768479928109</v>
+        <v>0.1853119871342787</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H15">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I15">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J15">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N15">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O15">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P15">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q15">
-        <v>26844.84592405958</v>
+        <v>24813.48927260865</v>
       </c>
       <c r="R15">
-        <v>241603.6133165362</v>
+        <v>223321.4034534779</v>
       </c>
       <c r="S15">
-        <v>0.02819978289930953</v>
+        <v>0.03177165944921016</v>
       </c>
       <c r="T15">
-        <v>0.03814384112464067</v>
+        <v>0.04852576613835451</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H16">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I16">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J16">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N16">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O16">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P16">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q16">
-        <v>332.3819980959644</v>
+        <v>56.18777961705155</v>
       </c>
       <c r="R16">
-        <v>2991.43798286368</v>
+        <v>505.690016553464</v>
       </c>
       <c r="S16">
-        <v>0.0003491582783697153</v>
+        <v>7.194389227519382E-05</v>
       </c>
       <c r="T16">
-        <v>0.000472281575537008</v>
+        <v>0.0001098819687781783</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H17">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I17">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J17">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N17">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O17">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P17">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q17">
-        <v>19596.92730910087</v>
+        <v>18899.66716803165</v>
       </c>
       <c r="R17">
-        <v>117581.5638546052</v>
+        <v>113398.0030081899</v>
       </c>
       <c r="S17">
-        <v>0.02058604088000755</v>
+        <v>0.02419949013897762</v>
       </c>
       <c r="T17">
-        <v>0.01856351579055578</v>
+        <v>0.02464038327467419</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H18">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I18">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J18">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N18">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O18">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P18">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q18">
-        <v>87541.91947922697</v>
+        <v>296.3495120272906</v>
       </c>
       <c r="R18">
-        <v>787877.2753130428</v>
+        <v>2667.145608245616</v>
       </c>
       <c r="S18">
-        <v>0.09196041321624825</v>
+        <v>0.0003794515019886533</v>
       </c>
       <c r="T18">
-        <v>0.1243883119243009</v>
+        <v>0.0005795471550922247</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H19">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I19">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J19">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N19">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O19">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P19">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q19">
-        <v>185.5873515509066</v>
+        <v>248.4537866397867</v>
       </c>
       <c r="R19">
-        <v>1670.28616395816</v>
+        <v>2236.08407975808</v>
       </c>
       <c r="S19">
-        <v>0.0001949544816684115</v>
+        <v>0.0003181249122709999</v>
       </c>
       <c r="T19">
-        <v>0.0002637010647155953</v>
+        <v>0.0004858812968307467</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H20">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I20">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J20">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N20">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O20">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P20">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q20">
-        <v>32907.78203648774</v>
+        <v>35988.5704994679</v>
       </c>
       <c r="R20">
-        <v>131631.128145951</v>
+        <v>143954.2819978716</v>
       </c>
       <c r="S20">
-        <v>0.03456873292370225</v>
+        <v>0.04608044412501031</v>
       </c>
       <c r="T20">
-        <v>0.02078162975351793</v>
+        <v>0.03127999248983165</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H21">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I21">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J21">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N21">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O21">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P21">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q21">
-        <v>6564.481993022408</v>
+        <v>6282.640724676655</v>
       </c>
       <c r="R21">
-        <v>39386.89195813445</v>
+        <v>37695.84434805993</v>
       </c>
       <c r="S21">
-        <v>0.006895810375419156</v>
+        <v>0.008044411624386615</v>
       </c>
       <c r="T21">
-        <v>0.006218314902750011</v>
+        <v>0.00819097363232732</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H22">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I22">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J22">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N22">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O22">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P22">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q22">
-        <v>81.27875449455401</v>
+        <v>14.22644064980117</v>
       </c>
       <c r="R22">
-        <v>487.672526967324</v>
+        <v>85.358643898807</v>
       </c>
       <c r="S22">
-        <v>8.538112818961901E-05</v>
+        <v>1.821580280524425E-05</v>
       </c>
       <c r="T22">
-        <v>7.699265393486765E-05</v>
+        <v>1.854767849237283E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H23">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I23">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J23">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N23">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O23">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P23">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q23">
-        <v>4792.118263709808</v>
+        <v>4785.293085071497</v>
       </c>
       <c r="R23">
-        <v>19168.47305483923</v>
+        <v>19141.17234028599</v>
       </c>
       <c r="S23">
-        <v>0.0050339903252459</v>
+        <v>0.006127179478598505</v>
       </c>
       <c r="T23">
-        <v>0.003026275893679692</v>
+        <v>0.004159207484078671</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H24">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I24">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J24">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N24">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O24">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P24">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q24">
-        <v>21406.99021635881</v>
+        <v>75.034087005893</v>
       </c>
       <c r="R24">
-        <v>128441.9412981529</v>
+        <v>450.204522035358</v>
       </c>
       <c r="S24">
-        <v>0.02248746289461557</v>
+        <v>9.607505954695631E-05</v>
       </c>
       <c r="T24">
-        <v>0.02027812802699439</v>
+        <v>9.782546147784932E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H25">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I25">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J25">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N25">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O25">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P25">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q25">
-        <v>45.3824481181605</v>
+        <v>62.90714945384001</v>
       </c>
       <c r="R25">
-        <v>272.294688708963</v>
+        <v>377.44289672304</v>
       </c>
       <c r="S25">
-        <v>4.76730314635299E-05</v>
+        <v>8.054750008795726E-05</v>
       </c>
       <c r="T25">
-        <v>4.298927984818882E-05</v>
+        <v>8.201500372883355E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H26">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I26">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J26">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N26">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O26">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P26">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q26">
-        <v>78737.20401476504</v>
+        <v>69805.51237343522</v>
       </c>
       <c r="R26">
-        <v>472423.2240885902</v>
+        <v>418833.0742406113</v>
       </c>
       <c r="S26">
-        <v>0.08271129831015414</v>
+        <v>0.08938029401832887</v>
       </c>
       <c r="T26">
-        <v>0.07458512791204332</v>
+        <v>0.09100872328989233</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H27">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I27">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J27">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N27">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O27">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P27">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q27">
-        <v>15706.58749844517</v>
+        <v>12186.17324216166</v>
       </c>
       <c r="R27">
-        <v>141359.2874860065</v>
+        <v>109675.559179455</v>
       </c>
       <c r="S27">
-        <v>0.01649934437314821</v>
+        <v>0.015603405953327</v>
       </c>
       <c r="T27">
-        <v>0.02231748991392089</v>
+        <v>0.02383152914827613</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H28">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I28">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J28">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N28">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O28">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P28">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q28">
-        <v>194.4725982324738</v>
+        <v>27.59442692574633</v>
       </c>
       <c r="R28">
-        <v>1750.253384092264</v>
+        <v>248.349842331717</v>
       </c>
       <c r="S28">
-        <v>0.000204288192434933</v>
+        <v>3.533242444659851E-05</v>
       </c>
       <c r="T28">
-        <v>0.0002763261115768695</v>
+        <v>5.396422458000826E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H29">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I29">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J29">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N29">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O29">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P29">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q29">
-        <v>11465.9199144517</v>
+        <v>9281.831176523427</v>
       </c>
       <c r="R29">
-        <v>68795.51948671021</v>
+        <v>55690.98705914056</v>
       </c>
       <c r="S29">
-        <v>0.01204463803752432</v>
+        <v>0.01188463161974967</v>
       </c>
       <c r="T29">
-        <v>0.01086128360982005</v>
+        <v>0.01210115901232438</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H30">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I30">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J30">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N30">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O30">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P30">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q30">
-        <v>51219.6949079896</v>
+        <v>145.540453989322</v>
       </c>
       <c r="R30">
-        <v>460977.2541719064</v>
+        <v>1309.864085903898</v>
       </c>
       <c r="S30">
-        <v>0.05380490097280288</v>
+        <v>0.000186352741020451</v>
       </c>
       <c r="T30">
-        <v>0.07277806363835052</v>
+        <v>0.0002846218827334356</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H31">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I31">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J31">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N31">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O31">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P31">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q31">
-        <v>108.5848651910687</v>
+        <v>122.01834467536</v>
       </c>
       <c r="R31">
-        <v>977.2637867196181</v>
+        <v>1098.16510207824</v>
       </c>
       <c r="S31">
-        <v>0.0001140654572278458</v>
+        <v>0.0001562345888154215</v>
       </c>
       <c r="T31">
-        <v>0.0001542882331344111</v>
+        <v>0.000238621565603102</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H32">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I32">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J32">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N32">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O32">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P32">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q32">
-        <v>75734.70045209661</v>
+        <v>166436.6568888897</v>
       </c>
       <c r="R32">
-        <v>454408.2027125796</v>
+        <v>998619.9413333383</v>
       </c>
       <c r="S32">
-        <v>0.07955724971322149</v>
+        <v>0.2131086331488324</v>
       </c>
       <c r="T32">
-        <v>0.07174095640404825</v>
+        <v>0.2169912824514993</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H33">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I33">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J33">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N33">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O33">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P33">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q33">
-        <v>15107.64465418819</v>
+        <v>29055.38353251998</v>
       </c>
       <c r="R33">
-        <v>135968.8018876937</v>
+        <v>261498.4517926798</v>
       </c>
       <c r="S33">
-        <v>0.01587017115215371</v>
+        <v>0.03720306082790444</v>
       </c>
       <c r="T33">
-        <v>0.0214664520365307</v>
+        <v>0.05682130114266811</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H34">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I34">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J34">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N34">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O34">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P34">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q34">
-        <v>187.056730773872</v>
+        <v>65.79314455449457</v>
       </c>
       <c r="R34">
-        <v>1683.510576964848</v>
+        <v>592.1383009904511</v>
       </c>
       <c r="S34">
-        <v>0.0001964980247083528</v>
+        <v>8.424278262169205E-05</v>
       </c>
       <c r="T34">
-        <v>0.0002657889056289382</v>
+        <v>0.0001286664165238019</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H35">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I35">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J35">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N35">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O35">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P35">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q35">
-        <v>11028.68740380837</v>
+        <v>22130.5868018458</v>
       </c>
       <c r="R35">
-        <v>66172.12442285022</v>
+        <v>132783.5208110748</v>
       </c>
       <c r="S35">
-        <v>0.01158533713814343</v>
+        <v>0.02833642054749643</v>
       </c>
       <c r="T35">
-        <v>0.01044710783177843</v>
+        <v>0.02885268486702767</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H36">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I36">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J36">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N36">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O36">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P36">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q36">
-        <v>49266.52272764155</v>
+        <v>347.0107987244327</v>
       </c>
       <c r="R36">
-        <v>443398.7045487739</v>
+        <v>3123.097188519894</v>
       </c>
       <c r="S36">
-        <v>0.05175314654640024</v>
+        <v>0.0004443191685436031</v>
       </c>
       <c r="T36">
-        <v>0.07000280131995171</v>
+        <v>0.0006786214015041318</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H37">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I37">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J37">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N37">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O37">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P37">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q37">
-        <v>104.444174031564</v>
+        <v>290.9272445167467</v>
       </c>
       <c r="R37">
-        <v>939.9975662840759</v>
+        <v>2618.34520065072</v>
       </c>
       <c r="S37">
-        <v>0.0001097157734158605</v>
+        <v>0.0003725087284474212</v>
       </c>
       <c r="T37">
-        <v>0.0001484047251351048</v>
+        <v>0.0005689432580640583</v>
       </c>
     </row>
   </sheetData>
